--- a/Output/March/productivity_TL_valid/productivity_TL_2022-03-04_valid.xlsx
+++ b/Output/March/productivity_TL_valid/productivity_TL_2022-03-04_valid.xlsx
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T6">
         <v>22</v>
       </c>
       <c r="U6">
-        <v>0.2272727272727273</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>21</v>
       </c>
       <c r="U7">
-        <v>0.1904761904761905</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1954,13 +1954,13 @@
         <v>10.15</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>48</v>
       </c>
       <c r="H3">
-        <v>0.1666666666666667</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2058,13 +2058,13 @@
         <v>10.21666666666667</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>63</v>
       </c>
       <c r="H7">
-        <v>0.1904761904761905</v>
+        <v>0.2063492063492063</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1666666666666667</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.1904761904761905</v>
+        <v>0.2063492063492063</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2396,7 +2396,7 @@
         <v>51</v>
       </c>
       <c r="D3">
-        <v>0.1666666666666667</v>
+        <v>0.1875</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>0.1904761904761905</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="E7">
         <v>1</v>
